--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/1_fold/34.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/1_fold/34.xlsx
@@ -479,13 +479,13 @@
         <v>-0.02873677086026494</v>
       </c>
       <c r="E2" t="n">
-        <v>-1.603409879203015</v>
+        <v>-1.602594537298181</v>
       </c>
       <c r="F2" t="n">
-        <v>0.06420356708845464</v>
+        <v>0.06569416319632639</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.1862071349192718</v>
+        <v>-0.1860387148732926</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>0.009885156536158173</v>
       </c>
       <c r="E3" t="n">
-        <v>-1.537800827179399</v>
+        <v>-1.535993066218585</v>
       </c>
       <c r="F3" t="n">
-        <v>0.09018747474288638</v>
+        <v>0.09177880807452138</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.1875057006943449</v>
+        <v>-0.1873986673940964</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>0.05140578821540316</v>
       </c>
       <c r="E4" t="n">
-        <v>-1.644734964223204</v>
+        <v>-1.642500644080517</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1026001895334636</v>
+        <v>0.1043867012361399</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.1850439347886306</v>
+        <v>-0.1848062579013142</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>0.09344186932703595</v>
       </c>
       <c r="E5" t="n">
-        <v>-1.692069654248519</v>
+        <v>-1.689746402025479</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1456417424054309</v>
+        <v>0.1476265805173911</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.2159875766942808</v>
+        <v>-0.2158270267439081</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>0.1409332477705155</v>
       </c>
       <c r="E6" t="n">
-        <v>-1.7808238704413</v>
+        <v>-1.779820433251471</v>
       </c>
       <c r="F6" t="n">
-        <v>0.2342936473553283</v>
+        <v>0.236862446561291</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.2653362241853</v>
+        <v>-0.2652228948085663</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>0.1964429205620539</v>
       </c>
       <c r="E7" t="n">
-        <v>-1.70846857246379</v>
+        <v>-1.708582688850084</v>
       </c>
       <c r="F7" t="n">
-        <v>0.3088911355711317</v>
+        <v>0.3116598352054997</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.2763669501873752</v>
+        <v>-0.2768486000384932</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>0.2599495258615319</v>
       </c>
       <c r="E8" t="n">
-        <v>-1.539582616824711</v>
+        <v>-1.540685217219182</v>
       </c>
       <c r="F8" t="n">
-        <v>0.3784753728855926</v>
+        <v>0.3812535166346883</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.2794913781431571</v>
+        <v>-0.2800501549312188</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>0.3272056173719967</v>
       </c>
       <c r="E9" t="n">
-        <v>-1.184258031315369</v>
+        <v>-1.185604604673642</v>
       </c>
       <c r="F9" t="n">
-        <v>0.4077505545226641</v>
+        <v>0.4101525077017689</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.2756004028753017</v>
+        <v>-0.2762221404282155</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>0.3946208727760682</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.7866230248159044</v>
+        <v>-0.7875579921739569</v>
       </c>
       <c r="F10" t="n">
-        <v>0.4465611439965751</v>
+        <v>0.4490166138258042</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.236131873408687</v>
+        <v>-0.2368811065104261</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>0.4627158959732115</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.2602946409397739</v>
+        <v>-0.2602049218498597</v>
       </c>
       <c r="F11" t="n">
-        <v>0.417334756952264</v>
+        <v>0.4193841298481975</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.1785715681618422</v>
+        <v>-0.1791602513132086</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>0.5336222533536549</v>
       </c>
       <c r="E12" t="n">
-        <v>0.3118455694618131</v>
+        <v>0.3130827484911555</v>
       </c>
       <c r="F12" t="n">
-        <v>0.2904577976415794</v>
+        <v>0.2922757897266817</v>
       </c>
       <c r="G12" t="n">
-        <v>-0.124642525027838</v>
+        <v>-0.1249903832536454</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>0.607645195263015</v>
       </c>
       <c r="E13" t="n">
-        <v>0.8945553182629342</v>
+        <v>0.8967416308224209</v>
       </c>
       <c r="F13" t="n">
-        <v>0.0936408726950201</v>
+        <v>0.09534553540338873</v>
       </c>
       <c r="G13" t="n">
-        <v>-0.01125648360582164</v>
+        <v>-0.01133833260012928</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>0.687106754953922</v>
       </c>
       <c r="E14" t="n">
-        <v>1.601204906694393</v>
+        <v>1.605648362673825</v>
       </c>
       <c r="F14" t="n">
-        <v>0.01302748339760537</v>
+        <v>0.01509574452299447</v>
       </c>
       <c r="G14" t="n">
-        <v>0.08700166004137379</v>
+        <v>0.08681277774681771</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>0.7769214263207562</v>
       </c>
       <c r="E15" t="n">
-        <v>2.268727527808559</v>
+        <v>2.274168911910895</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.1292292167473082</v>
+        <v>-0.1269815174420908</v>
       </c>
       <c r="G15" t="n">
-        <v>0.203815915109583</v>
+        <v>0.2039733170217131</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>0.8821742464128174</v>
       </c>
       <c r="E16" t="n">
-        <v>2.869573124925306</v>
+        <v>2.876132062603767</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.2543354045465295</v>
+        <v>-0.2514266172103658</v>
       </c>
       <c r="G16" t="n">
-        <v>0.3072478596084938</v>
+        <v>0.3073454487940145</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>1.004134250498033</v>
       </c>
       <c r="E17" t="n">
-        <v>3.405989397349853</v>
+        <v>3.413325900474236</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.3643798033740244</v>
+        <v>-0.3606367859035714</v>
       </c>
       <c r="G17" t="n">
-        <v>0.3924117381855888</v>
+        <v>0.3924085901473462</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>1.142849911439822</v>
       </c>
       <c r="E18" t="n">
-        <v>3.878848351675399</v>
+        <v>3.887047417278255</v>
       </c>
       <c r="F18" t="n">
-        <v>-0.5431269888080519</v>
+        <v>-0.5390376871309127</v>
       </c>
       <c r="G18" t="n">
-        <v>0.4882144120035552</v>
+        <v>0.4882333002330108</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>1.296203527864593</v>
       </c>
       <c r="E19" t="n">
-        <v>4.254458108610503</v>
+        <v>4.262391164981859</v>
       </c>
       <c r="F19" t="n">
-        <v>-0.7442236717454277</v>
+        <v>-0.7399628019840667</v>
       </c>
       <c r="G19" t="n">
-        <v>0.6101599694072047</v>
+        <v>0.6105141237094973</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>1.458553067579559</v>
       </c>
       <c r="E20" t="n">
-        <v>4.528949729155009</v>
+        <v>4.536020223047892</v>
       </c>
       <c r="F20" t="n">
-        <v>-0.9513535699747492</v>
+        <v>-0.9468849296893764</v>
       </c>
       <c r="G20" t="n">
-        <v>0.717007535399338</v>
+        <v>0.7170799402789179</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>1.625971410284509</v>
       </c>
       <c r="E21" t="n">
-        <v>4.736909135461256</v>
+        <v>4.743779728925734</v>
       </c>
       <c r="F21" t="n">
-        <v>-1.070964070011949</v>
+        <v>-1.066206597217818</v>
       </c>
       <c r="G21" t="n">
-        <v>0.8602590156289136</v>
+        <v>0.860240127399458</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>1.789978814892324</v>
       </c>
       <c r="E22" t="n">
-        <v>4.882586179156756</v>
+        <v>4.888825590953592</v>
       </c>
       <c r="F22" t="n">
-        <v>-1.237437054338074</v>
+        <v>-1.232506439440599</v>
       </c>
       <c r="G22" t="n">
-        <v>0.961474741205033</v>
+        <v>0.9615314058933998</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>1.939941613196282</v>
       </c>
       <c r="E23" t="n">
-        <v>4.927069533543835</v>
+        <v>4.932285832911825</v>
       </c>
       <c r="F23" t="n">
-        <v>-1.489763337616423</v>
+        <v>-1.485722830532044</v>
       </c>
       <c r="G23" t="n">
-        <v>1.014346043489523</v>
+        <v>1.014276786648186</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>2.070075376174549</v>
       </c>
       <c r="E24" t="n">
-        <v>4.975687836162571</v>
+        <v>4.980306008264467</v>
       </c>
       <c r="F24" t="n">
-        <v>-1.698688404653588</v>
+        <v>-1.695315281676641</v>
       </c>
       <c r="G24" t="n">
-        <v>1.112048558386899</v>
+        <v>1.11200133781326</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>2.179093088582645</v>
       </c>
       <c r="E25" t="n">
-        <v>4.940681650904843</v>
+        <v>4.944753638371648</v>
       </c>
       <c r="F25" t="n">
-        <v>-1.860819457233605</v>
+        <v>-1.857904373820956</v>
       </c>
       <c r="G25" t="n">
-        <v>1.15905191738718</v>
+        <v>1.159158950687429</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>2.265720488602026</v>
       </c>
       <c r="E26" t="n">
-        <v>4.929074833904372</v>
+        <v>4.93277535285855</v>
       </c>
       <c r="F26" t="n">
-        <v>-1.922669751595554</v>
+        <v>-1.920317380018771</v>
       </c>
       <c r="G26" t="n">
-        <v>1.188050071658903</v>
+        <v>1.188226361800489</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>2.329483794997196</v>
       </c>
       <c r="E27" t="n">
-        <v>4.834062317685299</v>
+        <v>4.837381924012122</v>
       </c>
       <c r="F27" t="n">
-        <v>-2.010146651271401</v>
+        <v>-2.00864582403924</v>
       </c>
       <c r="G27" t="n">
-        <v>1.208254181099919</v>
+        <v>1.208339178132469</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>2.369210218164094</v>
       </c>
       <c r="E28" t="n">
-        <v>4.716404388368072</v>
+        <v>4.719111701256709</v>
       </c>
       <c r="F28" t="n">
-        <v>-2.076153930132706</v>
+        <v>-2.075181186315742</v>
       </c>
       <c r="G28" t="n">
-        <v>1.196581255296353</v>
+        <v>1.196778007686515</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>2.383529566277377</v>
       </c>
       <c r="E29" t="n">
-        <v>4.593007585334584</v>
+        <v>4.595271024831014</v>
       </c>
       <c r="F29" t="n">
-        <v>-2.171141262045838</v>
+        <v>-2.170626557793173</v>
       </c>
       <c r="G29" t="n">
-        <v>1.161649048937327</v>
+        <v>1.16155618180917</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>2.369349027598648</v>
       </c>
       <c r="E30" t="n">
-        <v>4.48813226530144</v>
+        <v>4.490203674465072</v>
       </c>
       <c r="F30" t="n">
-        <v>-2.174128750338067</v>
+        <v>-2.173839130819748</v>
       </c>
       <c r="G30" t="n">
-        <v>1.114516620369099</v>
+        <v>1.114387550801152</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>2.329475406642553</v>
       </c>
       <c r="E31" t="n">
-        <v>4.300482427717336</v>
+        <v>4.301847102295503</v>
       </c>
       <c r="F31" t="n">
-        <v>-2.139135944242871</v>
+        <v>-2.13855434417755</v>
       </c>
       <c r="G31" t="n">
-        <v>1.04833541239489</v>
+        <v>1.047998572302932</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>2.266315441899263</v>
       </c>
       <c r="E32" t="n">
-        <v>4.114176802462823</v>
+        <v>4.114933905660168</v>
       </c>
       <c r="F32" t="n">
-        <v>-2.056956405919762</v>
+        <v>-2.056076529230955</v>
       </c>
       <c r="G32" t="n">
-        <v>1.021076549252205</v>
+        <v>1.02070822877782</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>2.181443418296428</v>
       </c>
       <c r="E33" t="n">
-        <v>3.897273819509345</v>
+        <v>3.897613807639546</v>
       </c>
       <c r="F33" t="n">
-        <v>-2.001186547423397</v>
+        <v>-2.000196489396099</v>
       </c>
       <c r="G33" t="n">
-        <v>0.9390182104014361</v>
+        <v>0.9385523007415311</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>2.080775632872418</v>
       </c>
       <c r="E34" t="n">
-        <v>3.682272251654399</v>
+        <v>3.681741807210521</v>
       </c>
       <c r="F34" t="n">
-        <v>-1.901440168697011</v>
+        <v>-1.900296643805387</v>
       </c>
       <c r="G34" t="n">
-        <v>0.8478415787809724</v>
+        <v>0.8470356809908665</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>1.969750899332027</v>
       </c>
       <c r="E35" t="n">
-        <v>3.443384943633715</v>
+        <v>3.442800982539712</v>
       </c>
       <c r="F35" t="n">
-        <v>-1.837708134475547</v>
+        <v>-1.836682661018019</v>
       </c>
       <c r="G35" t="n">
-        <v>0.7778024499404558</v>
+        <v>0.7769477575575895</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>1.85281757252794</v>
       </c>
       <c r="E36" t="n">
-        <v>3.209265339531451</v>
+        <v>3.208265837389425</v>
       </c>
       <c r="F36" t="n">
-        <v>-1.755419988833068</v>
+        <v>-1.753927818706075</v>
       </c>
       <c r="G36" t="n">
-        <v>0.7250192927267585</v>
+        <v>0.7240622891010077</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>1.733982463392941</v>
       </c>
       <c r="E37" t="n">
-        <v>3.024074119814818</v>
+        <v>3.023208409298103</v>
       </c>
       <c r="F37" t="n">
-        <v>-1.680033917037493</v>
+        <v>-1.678175787464797</v>
       </c>
       <c r="G37" t="n">
-        <v>0.6636876376652772</v>
+        <v>0.662911646238476</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>1.617962929818801</v>
       </c>
       <c r="E38" t="n">
-        <v>2.788907792996889</v>
+        <v>2.787516360093659</v>
       </c>
       <c r="F38" t="n">
-        <v>-1.611725422220846</v>
+        <v>-1.609834238246603</v>
       </c>
       <c r="G38" t="n">
-        <v>0.583239520375599</v>
+        <v>0.5822274260806027</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>1.506425185256174</v>
       </c>
       <c r="E39" t="n">
-        <v>2.540242678194685</v>
+        <v>2.538623012518867</v>
       </c>
       <c r="F39" t="n">
-        <v>-1.560827939914467</v>
+        <v>-1.558806899362717</v>
       </c>
       <c r="G39" t="n">
-        <v>0.5261923453622982</v>
+        <v>0.5250228491551718</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>1.399004772185195</v>
       </c>
       <c r="E40" t="n">
-        <v>2.294549311493497</v>
+        <v>2.292597527783084</v>
       </c>
       <c r="F40" t="n">
-        <v>-1.49092102868014</v>
+        <v>-1.489007021428638</v>
       </c>
       <c r="G40" t="n">
-        <v>0.4991192164759264</v>
+        <v>0.4981968412708442</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>1.297679095796756</v>
       </c>
       <c r="E41" t="n">
-        <v>2.092472014643551</v>
+        <v>2.090318756485611</v>
       </c>
       <c r="F41" t="n">
-        <v>-1.467709755707879</v>
+        <v>-1.465780008265164</v>
       </c>
       <c r="G41" t="n">
-        <v>0.4252914236104389</v>
+        <v>0.4243643263479928</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>1.201908095636075</v>
       </c>
       <c r="E42" t="n">
-        <v>1.888076187627928</v>
+        <v>1.885967002005386</v>
       </c>
       <c r="F42" t="n">
-        <v>-1.431630876418985</v>
+        <v>-1.429535069958974</v>
       </c>
       <c r="G42" t="n">
-        <v>0.4097086343095621</v>
+        <v>0.4088681080987875</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>1.109915767072626</v>
       </c>
       <c r="E43" t="n">
-        <v>1.743670951382439</v>
+        <v>1.74202610140068</v>
       </c>
       <c r="F43" t="n">
-        <v>-1.397231475532519</v>
+        <v>-1.395405613351811</v>
       </c>
       <c r="G43" t="n">
-        <v>0.3640935601742682</v>
+        <v>0.3632042393707333</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>1.022748822698732</v>
       </c>
       <c r="E44" t="n">
-        <v>1.508243337390374</v>
+        <v>1.506256925259293</v>
       </c>
       <c r="F44" t="n">
-        <v>-1.357065655595169</v>
+        <v>-1.355220905185004</v>
       </c>
       <c r="G44" t="n">
-        <v>0.3112096657368076</v>
+        <v>0.310436822348249</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>0.9409749404162463</v>
       </c>
       <c r="E45" t="n">
-        <v>1.30955647772771</v>
+        <v>1.307271001963581</v>
       </c>
       <c r="F45" t="n">
-        <v>-1.302856437057573</v>
+        <v>-1.301191911836797</v>
       </c>
       <c r="G45" t="n">
-        <v>0.2946210782174197</v>
+        <v>0.2941976670737898</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>0.8641487107876168</v>
       </c>
       <c r="E46" t="n">
-        <v>1.150479809252577</v>
+        <v>1.14828090454012</v>
       </c>
       <c r="F46" t="n">
-        <v>-1.257941014421697</v>
+        <v>-1.256448057285143</v>
       </c>
       <c r="G46" t="n">
-        <v>0.2721692694711867</v>
+        <v>0.2718906680867165</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>0.7921276125108089</v>
       </c>
       <c r="E47" t="n">
-        <v>1.004439167140057</v>
+        <v>1.002078138458105</v>
       </c>
       <c r="F47" t="n">
-        <v>-1.179893276292002</v>
+        <v>-1.17848610319756</v>
       </c>
       <c r="G47" t="n">
-        <v>0.243306480843896</v>
+        <v>0.2430263054403045</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>0.7261564806305818</v>
       </c>
       <c r="E48" t="n">
-        <v>0.8561256414163779</v>
+        <v>0.85397395727756</v>
       </c>
       <c r="F48" t="n">
-        <v>-1.161792056397045</v>
+        <v>-1.160725658442363</v>
       </c>
       <c r="G48" t="n">
-        <v>0.2041921056795739</v>
+        <v>0.2039339665436806</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>0.6654090473339682</v>
       </c>
       <c r="E49" t="n">
-        <v>0.7265539613700267</v>
+        <v>0.724676156558315</v>
       </c>
       <c r="F49" t="n">
-        <v>-1.080108334097145</v>
+        <v>-1.078775139901404</v>
       </c>
       <c r="G49" t="n">
-        <v>0.1645661743008291</v>
+        <v>0.1644780292300362</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>0.6087209139805982</v>
       </c>
       <c r="E50" t="n">
-        <v>0.5939397023622011</v>
+        <v>0.5919847706135456</v>
       </c>
       <c r="F50" t="n">
-        <v>-1.022696773657263</v>
+        <v>-1.021293535610624</v>
       </c>
       <c r="G50" t="n">
-        <v>0.121913404151823</v>
+        <v>0.1217024855895688</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>0.5559540457132465</v>
       </c>
       <c r="E51" t="n">
-        <v>0.4756946639127295</v>
+        <v>0.4736374209211895</v>
       </c>
       <c r="F51" t="n">
-        <v>-0.961210077712334</v>
+        <v>-0.9597430918912818</v>
       </c>
       <c r="G51" t="n">
-        <v>0.1017990138007216</v>
+        <v>0.1017029986343222</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>0.505612858219805</v>
       </c>
       <c r="E52" t="n">
-        <v>0.3576699881402401</v>
+        <v>0.3554679353895404</v>
       </c>
       <c r="F52" t="n">
-        <v>-0.9346327648491719</v>
+        <v>-0.9331161974257988</v>
       </c>
       <c r="G52" t="n">
-        <v>0.05959326508216491</v>
+        <v>0.05953187833643419</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>0.4559304904430282</v>
       </c>
       <c r="E53" t="n">
-        <v>0.1968634726507979</v>
+        <v>0.1946472537280065</v>
       </c>
       <c r="F53" t="n">
-        <v>-0.9160687833325516</v>
+        <v>-0.9146246207887583</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02227956779261081</v>
+        <v>0.02217253449236236</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>0.4065998914420862</v>
       </c>
       <c r="E54" t="n">
-        <v>0.09453019349855499</v>
+        <v>0.09232656672873402</v>
       </c>
       <c r="F54" t="n">
-        <v>-0.86879862809121</v>
+        <v>-0.8672222479412274</v>
       </c>
       <c r="G54" t="n">
-        <v>-0.01453201739724837</v>
+        <v>-0.01455877572231049</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>0.3574008608364789</v>
       </c>
       <c r="E55" t="n">
-        <v>0.0004306083698359637</v>
+        <v>-0.001914680120902061</v>
       </c>
       <c r="F55" t="n">
-        <v>-0.8414374537056402</v>
+        <v>-0.8396446459264787</v>
       </c>
       <c r="G55" t="n">
-        <v>-0.04239845192075575</v>
+        <v>-0.04248659699154859</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>0.3079370833275882</v>
       </c>
       <c r="E56" t="n">
-        <v>-0.09727977662314684</v>
+        <v>-0.09942044262811577</v>
       </c>
       <c r="F56" t="n">
-        <v>-0.8395541398270039</v>
+        <v>-0.8377566099904785</v>
       </c>
       <c r="G56" t="n">
-        <v>-0.0480145521455566</v>
+        <v>-0.04810584525459204</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>0.2585171455317714</v>
       </c>
       <c r="E57" t="n">
-        <v>-0.2315294414980038</v>
+        <v>-0.2345216518475964</v>
       </c>
       <c r="F57" t="n">
-        <v>-0.8273177151780123</v>
+        <v>-0.825661847062404</v>
       </c>
       <c r="G57" t="n">
-        <v>-0.08983781421763717</v>
+        <v>-0.08977642747190645</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>0.2094068073910739</v>
       </c>
       <c r="E58" t="n">
-        <v>-0.3191724001911474</v>
+        <v>-0.3222023869996512</v>
       </c>
       <c r="F58" t="n">
-        <v>-0.7754726733606103</v>
+        <v>-0.7737506964419073</v>
       </c>
       <c r="G58" t="n">
-        <v>-0.1219855807510824</v>
+        <v>-0.1220957620895735</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>0.160478620661768</v>
       </c>
       <c r="E59" t="n">
-        <v>-0.4405654768832203</v>
+        <v>-0.4442219233020018</v>
       </c>
       <c r="F59" t="n">
-        <v>-0.8296614296496291</v>
+        <v>-0.8280260237825976</v>
       </c>
       <c r="G59" t="n">
-        <v>-0.148973712604904</v>
+        <v>-0.149088616000759</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>0.1116690637770451</v>
       </c>
       <c r="E60" t="n">
-        <v>-0.500883463630584</v>
+        <v>-0.5045918526803684</v>
       </c>
       <c r="F60" t="n">
-        <v>-0.8007876228884893</v>
+        <v>-0.7991301807537596</v>
       </c>
       <c r="G60" t="n">
-        <v>-0.1671064128822879</v>
+        <v>-0.1670607663277702</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>0.06379087624735223</v>
       </c>
       <c r="E61" t="n">
-        <v>-0.6008116415654795</v>
+        <v>-0.6045436409020833</v>
       </c>
       <c r="F61" t="n">
-        <v>-0.8203086080308604</v>
+        <v>-0.8186464438387668</v>
       </c>
       <c r="G61" t="n">
-        <v>-0.2001671105060876</v>
+        <v>-0.2000994276838717</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>0.01716049756902596</v>
       </c>
       <c r="E62" t="n">
-        <v>-0.6895107670890158</v>
+        <v>-0.6932836909227735</v>
       </c>
       <c r="F62" t="n">
-        <v>-0.8616329060414887</v>
+        <v>-0.8599715288589558</v>
       </c>
       <c r="G62" t="n">
-        <v>-0.2246368117658281</v>
+        <v>-0.2244762618154554</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-0.02786959760993593</v>
       </c>
       <c r="E63" t="n">
-        <v>-0.7730770162579906</v>
+        <v>-0.7772340007573457</v>
       </c>
       <c r="F63" t="n">
-        <v>-0.8628716590899522</v>
+        <v>-0.8611079706645348</v>
       </c>
       <c r="G63" t="n">
-        <v>-0.2382615212798068</v>
+        <v>-0.23801125223952</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-0.07025995607459887</v>
       </c>
       <c r="E64" t="n">
-        <v>-0.8231827669463554</v>
+        <v>-0.8273114191015272</v>
       </c>
       <c r="F64" t="n">
-        <v>-0.8710329482338963</v>
+        <v>-0.8690174167490708</v>
       </c>
       <c r="G64" t="n">
-        <v>-0.2655487167666756</v>
+        <v>-0.2653724266250899</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-0.1086842538366009</v>
       </c>
       <c r="E65" t="n">
-        <v>-0.9000972113087136</v>
+        <v>-0.9042589178654326</v>
       </c>
       <c r="F65" t="n">
-        <v>-0.8733215720362676</v>
+        <v>-0.8710880389031419</v>
       </c>
       <c r="G65" t="n">
-        <v>-0.2769461892240138</v>
+        <v>-0.2767258265470318</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-0.1418090162898959</v>
       </c>
       <c r="E66" t="n">
-        <v>-0.9280565129603776</v>
+        <v>-0.9322032663354444</v>
       </c>
       <c r="F66" t="n">
-        <v>-0.884405814688467</v>
+        <v>-0.882103024714004</v>
       </c>
       <c r="G66" t="n">
-        <v>-0.2919465914500094</v>
+        <v>-0.2918741865704296</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-0.1680951698484125</v>
       </c>
       <c r="E67" t="n">
-        <v>-0.9979217126879907</v>
+        <v>-1.001851251424318</v>
       </c>
       <c r="F67" t="n">
-        <v>-0.8594631206827756</v>
+        <v>-0.8566605796372998</v>
       </c>
       <c r="G67" t="n">
-        <v>-0.2850523876987124</v>
+        <v>-0.2848131367922747</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-0.1856480693980653</v>
       </c>
       <c r="E68" t="n">
-        <v>-1.018289520117622</v>
+        <v>-1.021812961920653</v>
       </c>
       <c r="F68" t="n">
-        <v>-0.9146820724866858</v>
+        <v>-0.9120967460799493</v>
       </c>
       <c r="G68" t="n">
-        <v>-0.3066416339664726</v>
+        <v>-0.3061237816755647</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-0.1932844755344419</v>
       </c>
       <c r="E69" t="n">
-        <v>-1.030706169956002</v>
+        <v>-1.034037581426235</v>
       </c>
       <c r="F69" t="n">
-        <v>-0.8952830738262154</v>
+        <v>-0.8926025192626403</v>
       </c>
       <c r="G69" t="n">
-        <v>-0.3237905722930436</v>
+        <v>-0.3234238258377806</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-0.1899617700770344</v>
       </c>
       <c r="E70" t="n">
-        <v>-1.034022628244583</v>
+        <v>-1.036877111921061</v>
       </c>
       <c r="F70" t="n">
-        <v>-0.929455815959214</v>
+        <v>-0.9263660164241008</v>
       </c>
       <c r="G70" t="n">
-        <v>-0.3235025267938456</v>
+        <v>-0.3229610642161181</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-0.1757949745072575</v>
       </c>
       <c r="E71" t="n">
-        <v>-1.000064739721642</v>
+        <v>-1.002385630915999</v>
       </c>
       <c r="F71" t="n">
-        <v>-0.9734079388928537</v>
+        <v>-0.9705566032546176</v>
       </c>
       <c r="G71" t="n">
-        <v>-0.3197343250174517</v>
+        <v>-0.3189756478009848</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-0.1514729204775128</v>
       </c>
       <c r="E72" t="n">
-        <v>-0.9361926177983809</v>
+        <v>-0.937779229072652</v>
       </c>
       <c r="F72" t="n">
-        <v>-1.031585259635248</v>
+        <v>-1.029098309423593</v>
       </c>
       <c r="G72" t="n">
-        <v>-0.2925006461807073</v>
+        <v>-0.2916632680081753</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-0.118656211192073</v>
       </c>
       <c r="E73" t="n">
-        <v>-0.8662699663728405</v>
+        <v>-0.867304096935535</v>
       </c>
       <c r="F73" t="n">
-        <v>-1.069330238164039</v>
+        <v>-1.067202951321601</v>
       </c>
       <c r="G73" t="n">
-        <v>-0.2970023408676272</v>
+        <v>-0.2958045123163174</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-0.07946985460067028</v>
       </c>
       <c r="E74" t="n">
-        <v>-0.8072584154961564</v>
+        <v>-0.8076031256837212</v>
       </c>
       <c r="F74" t="n">
-        <v>-1.115127111507843</v>
+        <v>-1.113151717510611</v>
       </c>
       <c r="G74" t="n">
-        <v>-0.2938936531030584</v>
+        <v>-0.2926517520163521</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-0.03581676496802694</v>
       </c>
       <c r="E75" t="n">
-        <v>-0.6833264459614254</v>
+        <v>-0.6832335788332686</v>
       </c>
       <c r="F75" t="n">
-        <v>-1.15674024202723</v>
+        <v>-1.154760912982195</v>
       </c>
       <c r="G75" t="n">
-        <v>-0.2622668868987637</v>
+        <v>-0.2606960158157056</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>0.01062751129998247</v>
       </c>
       <c r="E76" t="n">
-        <v>-0.5395712796130336</v>
+        <v>-0.5388787111996612</v>
       </c>
       <c r="F76" t="n">
-        <v>-1.219924517594482</v>
+        <v>-1.218466188878597</v>
       </c>
       <c r="G76" t="n">
-        <v>-0.2321826594333436</v>
+        <v>-0.2305677158148891</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>0.05810284620401546</v>
       </c>
       <c r="E77" t="n">
-        <v>-0.418834568894543</v>
+        <v>-0.417405359532402</v>
       </c>
       <c r="F77" t="n">
-        <v>-1.219221718056821</v>
+        <v>-1.217624875658262</v>
       </c>
       <c r="G77" t="n">
-        <v>-0.1944927715737986</v>
+        <v>-0.1928652358023737</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>0.1048283403413531</v>
       </c>
       <c r="E78" t="n">
-        <v>-0.2838403929753108</v>
+        <v>-0.2822317454333416</v>
       </c>
       <c r="F78" t="n">
-        <v>-1.252416994315492</v>
+        <v>-1.251113706483055</v>
       </c>
       <c r="G78" t="n">
-        <v>-0.1734953564956474</v>
+        <v>-0.1717891197681575</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>0.1493052719127533</v>
       </c>
       <c r="E79" t="n">
-        <v>-0.1359424082996556</v>
+        <v>-0.1339733103789085</v>
       </c>
       <c r="F79" t="n">
-        <v>-1.274948291027351</v>
+        <v>-1.274184104743959</v>
       </c>
       <c r="G79" t="n">
-        <v>-0.1367199737455782</v>
+        <v>-0.1350200330945734</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>0.1901523961640842</v>
       </c>
       <c r="E80" t="n">
-        <v>0.005061372624702587</v>
+        <v>0.007195742553186319</v>
       </c>
       <c r="F80" t="n">
-        <v>-1.261549453257279</v>
+        <v>-1.260879708121166</v>
       </c>
       <c r="G80" t="n">
-        <v>-0.1099585006452239</v>
+        <v>-0.1084427202314113</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>0.2257969510971156</v>
       </c>
       <c r="E81" t="n">
-        <v>0.1576829886833812</v>
+        <v>0.1596694008144627</v>
       </c>
       <c r="F81" t="n">
-        <v>-1.301773511902118</v>
+        <v>-1.301420144609386</v>
       </c>
       <c r="G81" t="n">
-        <v>-0.09124656133120129</v>
+        <v>-0.089428569246099</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>0.2547612497088281</v>
       </c>
       <c r="E82" t="n">
-        <v>0.2685726357790146</v>
+        <v>0.2703780357111465</v>
       </c>
       <c r="F82" t="n">
-        <v>-1.305726660925265</v>
+        <v>-1.305264686313163</v>
       </c>
       <c r="G82" t="n">
-        <v>-0.01861030094053846</v>
+        <v>-0.01667583144045991</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>0.2759353444624332</v>
       </c>
       <c r="E83" t="n">
-        <v>0.4295869217924685</v>
+        <v>0.4311656629711331</v>
       </c>
       <c r="F83" t="n">
-        <v>-1.284743412019205</v>
+        <v>-1.284885860749683</v>
       </c>
       <c r="G83" t="n">
-        <v>-0.006162957729292618</v>
+        <v>-0.004182841674696352</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>0.2884584343991436</v>
       </c>
       <c r="E84" t="n">
-        <v>0.5619398936261581</v>
+        <v>0.5633029941852045</v>
       </c>
       <c r="F84" t="n">
-        <v>-1.286054569947249</v>
+        <v>-1.286573996257278</v>
       </c>
       <c r="G84" t="n">
-        <v>0.07587019681553533</v>
+        <v>0.07784086875540379</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>0.2910925600509178</v>
       </c>
       <c r="E85" t="n">
-        <v>0.7004378361094057</v>
+        <v>0.7016089063356533</v>
       </c>
       <c r="F85" t="n">
-        <v>-1.234000183586714</v>
+        <v>-1.234714788267784</v>
       </c>
       <c r="G85" t="n">
-        <v>0.1158518565156941</v>
+        <v>0.1180586313237577</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>0.2833353909937937</v>
       </c>
       <c r="E86" t="n">
-        <v>0.8866458721783983</v>
+        <v>0.8877744438883709</v>
       </c>
       <c r="F86" t="n">
-        <v>-1.194688269022668</v>
+        <v>-1.195649994705783</v>
       </c>
       <c r="G86" t="n">
-        <v>0.1599779085622376</v>
+        <v>0.1620304294964137</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>0.2646617389104645</v>
       </c>
       <c r="E87" t="n">
-        <v>1.009776665980387</v>
+        <v>1.010749409797351</v>
       </c>
       <c r="F87" t="n">
-        <v>-1.060544850438499</v>
+        <v>-1.061264964186494</v>
       </c>
       <c r="G87" t="n">
-        <v>0.1904886952095301</v>
+        <v>0.1923066872946324</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>0.2347941776699468</v>
       </c>
       <c r="E88" t="n">
-        <v>1.145269805961072</v>
+        <v>1.146307084562009</v>
       </c>
       <c r="F88" t="n">
-        <v>-0.9460672267558607</v>
+        <v>-0.9468691894981635</v>
       </c>
       <c r="G88" t="n">
-        <v>0.2217424188820766</v>
+        <v>0.2234706918772647</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>0.1932327776121965</v>
       </c>
       <c r="E89" t="n">
-        <v>1.249672920257825</v>
+        <v>1.250197068625218</v>
       </c>
       <c r="F89" t="n">
-        <v>-0.8612504193950126</v>
+        <v>-0.8624427388793978</v>
       </c>
       <c r="G89" t="n">
-        <v>0.2337946832938759</v>
+        <v>0.2354521254286056</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>0.1401086478616713</v>
       </c>
       <c r="E90" t="n">
-        <v>1.327435760926564</v>
+        <v>1.327728528483126</v>
       </c>
       <c r="F90" t="n">
-        <v>-0.7457961168476072</v>
+        <v>-0.7472316222862333</v>
       </c>
       <c r="G90" t="n">
-        <v>0.199942254052062</v>
+        <v>0.2010802698767624</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>0.07608483541395519</v>
       </c>
       <c r="E91" t="n">
-        <v>1.31834265246281</v>
+        <v>1.318452833801301</v>
       </c>
       <c r="F91" t="n">
-        <v>-0.6053290764436124</v>
+        <v>-0.60676615590136</v>
       </c>
       <c r="G91" t="n">
-        <v>0.1954075049635948</v>
+        <v>0.1963629345702243</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>0.00224835578070599</v>
       </c>
       <c r="E92" t="n">
-        <v>1.30490997328163</v>
+        <v>1.304415731277542</v>
       </c>
       <c r="F92" t="n">
-        <v>-0.4741062503390167</v>
+        <v>-0.4757117498427434</v>
       </c>
       <c r="G92" t="n">
-        <v>0.1699178393132514</v>
+        <v>0.1707630875813899</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>-0.07786646350053887</v>
       </c>
       <c r="E93" t="n">
-        <v>1.274167805823506</v>
+        <v>1.273272188943486</v>
       </c>
       <c r="F93" t="n">
-        <v>-0.338863379398619</v>
+        <v>-0.3407632204780289</v>
       </c>
       <c r="G93" t="n">
-        <v>0.1629842850839219</v>
+        <v>0.1638122191417261</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>-0.1589114314553979</v>
       </c>
       <c r="E94" t="n">
-        <v>1.193011379929243</v>
+        <v>1.191722258268898</v>
       </c>
       <c r="F94" t="n">
-        <v>-0.1896416446419499</v>
+        <v>-0.1913116789296499</v>
       </c>
       <c r="G94" t="n">
-        <v>0.1445871495941594</v>
+        <v>0.1453977694416293</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>-0.2346578744623908</v>
       </c>
       <c r="E95" t="n">
-        <v>1.160325298856313</v>
+        <v>1.158746557677648</v>
       </c>
       <c r="F95" t="n">
-        <v>-0.0974088461910935</v>
+        <v>-0.09928350296456261</v>
       </c>
       <c r="G95" t="n">
-        <v>0.1266071291715417</v>
+        <v>0.127252477011275</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-0.2993004036501847</v>
       </c>
       <c r="E96" t="n">
-        <v>1.120420766093098</v>
+        <v>1.119257565962457</v>
       </c>
       <c r="F96" t="n">
-        <v>0.009245115449119816</v>
+        <v>0.007592395371754093</v>
       </c>
       <c r="G96" t="n">
-        <v>0.05784452983839985</v>
+        <v>0.05826479294378713</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-0.3493521432233768</v>
       </c>
       <c r="E97" t="n">
-        <v>1.024939192175877</v>
+        <v>1.023727197452475</v>
       </c>
       <c r="F97" t="n">
-        <v>0.06581693668778783</v>
+        <v>0.06423347345175934</v>
       </c>
       <c r="G97" t="n">
-        <v>0.03282706992444672</v>
+        <v>0.03327881341226002</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-0.3847507718560267</v>
       </c>
       <c r="E98" t="n">
-        <v>1.000823645218429</v>
+        <v>0.999709239680548</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1001069432453233</v>
+        <v>0.09904762837668796</v>
       </c>
       <c r="G98" t="n">
-        <v>-0.006753214899780376</v>
+        <v>-0.006668217867230138</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-0.4077034811341634</v>
       </c>
       <c r="E99" t="n">
-        <v>0.9768938325172946</v>
+        <v>0.9760611764021265</v>
       </c>
       <c r="F99" t="n">
-        <v>0.165759280794775</v>
+        <v>0.1648794041059679</v>
       </c>
       <c r="G99" t="n">
-        <v>-0.02463879417512009</v>
+        <v>-0.02444361580407881</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-0.4217131121610811</v>
       </c>
       <c r="E100" t="n">
-        <v>0.8865860594517889</v>
+        <v>0.8858305302735645</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1545931891482679</v>
+        <v>0.1540470045131766</v>
       </c>
       <c r="G100" t="n">
-        <v>-0.03554989472397646</v>
+        <v>-0.03557035697255337</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-0.4300878142792035</v>
       </c>
       <c r="E101" t="n">
-        <v>0.8049936302609251</v>
+        <v>0.8042034726620322</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1426542541132022</v>
+        <v>0.1421537160326286</v>
       </c>
       <c r="G101" t="n">
-        <v>-0.0644772181352405</v>
+        <v>-0.06454332693833513</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-0.4355742156031571</v>
       </c>
       <c r="E102" t="n">
-        <v>0.6827002146314682</v>
+        <v>0.6820863471741609</v>
       </c>
       <c r="F102" t="n">
-        <v>0.1374725831658803</v>
+        <v>0.137005099486854</v>
       </c>
       <c r="G102" t="n">
-        <v>-0.08227465233978738</v>
+        <v>-0.08233289104727549</v>
       </c>
     </row>
   </sheetData>
